--- a/Reports/heart/heart_multifairgan_10_02.xlsx
+++ b/Reports/heart/heart_multifairgan_10_02.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0775</v>
+        <v>-0.0201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0175</v>
+        <v>-0.0201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9665</v>
+        <v>0.9596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.892</v>
+        <v>1.1656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0784</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8667</v>
+        <v>1.2169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0455</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0833</v>
+        <v>1.0813</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0613</v>
+        <v>0.0751</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6783</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="13">
